--- a/resources/wheels/230 - Наумов.xlsx
+++ b/resources/wheels/230 - Наумов.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -685,16 +685,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -893,9 +893,9 @@
       <c r="F16" s="18">
         <v>33</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>46.099999999999987</v>
+        <v>51.30899999999998</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -989,7 +989,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>3.687</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -999,7 +1001,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.522</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -1009,7 +1013,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -1530,16 +1536,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1738,9 +1744,9 @@
       <c r="F16" s="18">
         <v>32.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.199999999999989</v>
+        <v>50.408999999999985</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1834,7 +1840,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>3.687</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -1844,7 +1852,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.522</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -1854,7 +1864,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -2375,16 +2387,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2583,9 +2595,9 @@
       <c r="F16" s="18">
         <v>32.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.199999999999989</v>
+        <v>50.408999999999985</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2679,7 +2691,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>3.687</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -2689,7 +2703,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.522</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -2699,7 +2715,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -3220,16 +3238,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3428,9 +3446,9 @@
       <c r="F16" s="18">
         <v>32.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.199999999999989</v>
+        <v>50.408999999999985</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3524,7 +3542,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>3.687</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -3534,7 +3554,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.522</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -3544,7 +3566,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -4065,16 +4089,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4273,9 +4297,9 @@
       <c r="F16" s="18">
         <v>32.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.199999999999989</v>
+        <v>50.408999999999985</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4369,7 +4393,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>3.687</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -4379,7 +4405,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.522</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -4389,7 +4417,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -4910,16 +4940,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5118,9 +5148,9 @@
       <c r="F16" s="18">
         <v>32.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.199999999999989</v>
+        <v>50.408999999999985</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5214,7 +5244,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>3.687</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -5224,7 +5256,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.522</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -5234,7 +5268,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -5755,16 +5791,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5963,9 +5999,9 @@
       <c r="F16" s="18">
         <v>32.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.199999999999989</v>
+        <v>50.408999999999985</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6059,7 +6095,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>3.687</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -6069,7 +6107,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.522</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -6079,7 +6119,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -6600,16 +6642,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6808,9 +6850,9 @@
       <c r="F16" s="18">
         <v>32.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.199999999999989</v>
+        <v>50.408999999999985</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6904,7 +6946,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>3.687</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -6914,7 +6958,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.522</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -6924,7 +6970,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -7445,16 +7493,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7653,9 +7701,9 @@
       <c r="F16" s="18">
         <v>32.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.199999999999989</v>
+        <v>50.408999999999985</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7749,7 +7797,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>3.687</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -7759,7 +7809,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.522</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -7769,7 +7821,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -8290,16 +8344,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8498,9 +8552,9 @@
       <c r="F16" s="18">
         <v>32.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.199999999999989</v>
+        <v>50.408999999999985</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8594,7 +8648,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>3.687</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -8604,7 +8660,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.522</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -8614,7 +8672,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -9135,16 +9195,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9343,9 +9403,9 @@
       <c r="F16" s="18">
         <v>32.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.199999999999989</v>
+        <v>50.408999999999985</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9439,7 +9499,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>3.687</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -9449,7 +9511,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>1.522</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -9459,7 +9523,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
